--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +876,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +923,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1107,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1154,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1309,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1356,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1511,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1558,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1689,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1736,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1782,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1915,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1962,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2146,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2193,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2781,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2828,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3243,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3290,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3677,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3724,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3770,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3913,10 +3937,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3960,28 +3984,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4006,28 +4030,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4139,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4162,28 +4186,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4317,10 +4341,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4364,28 +4388,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4410,28 +4434,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4862,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4885,28 +4909,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4955,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5214,10 +5238,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5261,28 +5285,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5307,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5498,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5545,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5591,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5734,10 +5758,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5781,28 +5805,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5827,28 +5851,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5994,10 +6018,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6041,28 +6065,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6087,28 +6111,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6341,10 +6365,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6388,28 +6412,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6434,28 +6458,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6572,10 +6596,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6619,28 +6643,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6665,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6827,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
